--- a/data/localization.xlsx
+++ b/data/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixuy\Desktop\supplementary.py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixuy\anamoly-detection-shm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D68F9-1A84-4CE7-B7B3-028A5C7AA93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B1E83-F643-4B8D-B936-D8B4FB77717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="6576" windowWidth="23256" windowHeight="12576" xr2:uid="{56242924-F046-419A-B7F8-F65D6C02AC2E}"/>
+    <workbookView xWindow="45972" yWindow="6132" windowWidth="23256" windowHeight="12576" xr2:uid="{56242924-F046-419A-B7F8-F65D6C02AC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>GeoAE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>AE</t>
   </si>
@@ -47,33 +44,20 @@
     <t>SPIRIT</t>
   </si>
   <si>
-    <t>good case to show</t>
+    <t>Cases</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>0 or 8</t>
-  </si>
-  <si>
-    <t>Cases</t>
+    <t>MechAE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,12 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,9 +129,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +169,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -292,7 +275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,105 +425,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0C6EE5-3D37-45AA-A7FE-9B07662CB878}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
       <c r="B7">
         <v>30</v>
       </c>
@@ -552,7 +535,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8">
@@ -566,7 +549,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9">
@@ -580,7 +563,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10">
@@ -594,7 +577,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11">
@@ -608,7 +591,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12">
@@ -622,7 +605,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13">
@@ -636,7 +619,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14">
@@ -650,7 +633,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15">
@@ -664,7 +647,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16">
@@ -677,8 +660,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17">
@@ -691,8 +674,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18">
@@ -705,8 +688,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19">
@@ -719,8 +702,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20">
@@ -733,8 +716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21">
@@ -747,8 +730,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22">
@@ -761,8 +744,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23">
@@ -775,8 +758,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24">
@@ -788,12 +771,9 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25">
@@ -806,8 +786,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26">
@@ -820,8 +800,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27">
@@ -834,8 +814,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28">
@@ -848,8 +828,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29">
@@ -861,12 +841,9 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="4">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30">
@@ -879,8 +856,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31">
@@ -893,8 +870,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32">
@@ -907,8 +884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33">
@@ -920,15 +897,9 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="4">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34">
@@ -941,8 +912,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35">
@@ -955,8 +926,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36">
@@ -969,8 +940,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37">
@@ -983,8 +954,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38">
